--- a/DataClassification.xlsx
+++ b/DataClassification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Github\IS-Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B6F1E8-3407-41B3-8356-8880DB78ED6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEEFCC9-7F45-4F56-8941-6A1F46C56DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41625" yWindow="8085" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>T</t>
   </si>
@@ -64,6 +64,39 @@
   </si>
   <si>
     <t>OvalShape</t>
+  </si>
+  <si>
+    <t>GroupCount</t>
+  </si>
+  <si>
+    <t>%COLOURS</t>
+  </si>
+  <si>
+    <t>%1 - RedYellow</t>
+  </si>
+  <si>
+    <t>%2 - Yellow</t>
+  </si>
+  <si>
+    <t>%3 - DarkRed/Yellow</t>
+  </si>
+  <si>
+    <t>%4 - Green</t>
+  </si>
+  <si>
+    <t>%SIZES</t>
+  </si>
+  <si>
+    <t>%1 - OvalShape</t>
+  </si>
+  <si>
+    <t>%2 - PearShape</t>
+  </si>
+  <si>
+    <t>x1=[1, 2, 3, 2, 4]; %Colour vector</t>
+  </si>
+  <si>
+    <t>x2=[1, 1, 1, 2, 2]; %Size vector</t>
   </si>
 </sst>
 </file>
@@ -382,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,9 +426,10 @@
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -406,7 +440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.21834718250327201</v>
       </c>
@@ -417,7 +451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.14114915652447901</v>
       </c>
@@ -428,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.37021584902077798</v>
       </c>
@@ -439,7 +473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.14912715617648301</v>
       </c>
@@ -450,7 +484,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.184738799287993</v>
       </c>
@@ -461,100 +495,88 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.21834718250327201</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0.81883722366689804</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.14114915652447901</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>0.83535287874573905</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.37021584902077798</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0.81110058002763896</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.14912715617648301</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0.771042136373982</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.184738799287993</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0.81883722366689804</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0.83535287874573905</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0.81110058002763896</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.771042136373982</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C18">
+        <v>0.62789682435281402</v>
+      </c>
+      <c r="D18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0.62789682435281402</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -565,7 +587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -576,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -587,7 +609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -598,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -607,6 +629,61 @@
       </c>
       <c r="C32" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DataClassification.xlsx
+++ b/DataClassification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Github\IS-Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEEFCC9-7F45-4F56-8941-6A1F46C56DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FACC7F6-E49C-4127-A0B3-34C36DF9565F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>T</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>x2=[1, 1, 1, 2, 2]; %Size vector</t>
+  </si>
+  <si>
+    <t>RedYellow</t>
+  </si>
+  <si>
+    <t>DarkRedYellow</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
   </si>
 </sst>
 </file>
@@ -112,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,9 +150,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,61 +595,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
@@ -684,6 +648,72 @@
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/DataClassification.xlsx
+++ b/DataClassification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Github\IS-Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FACC7F6-E49C-4127-A0B3-34C36DF9565F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62B871A-BCC4-4F6B-A83A-9DD24A06049C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>T</t>
   </si>
@@ -109,6 +109,114 @@
   </si>
   <si>
     <t>x2</t>
+  </si>
+  <si>
+    <t>hsv_value_A4 hsv_value_A6 hsv_value_A7 hsv_value_A8 hsv_value_A9 hsv_value_P3 hsv_value_P4]</t>
+  </si>
+  <si>
+    <t>metric_A4 metric_A6 metric_A7 metric_A8 metric_A9 metric_P3 metric_P4]</t>
+  </si>
+  <si>
+    <t>hsv_value_A4 hsv</t>
+  </si>
+  <si>
+    <t>hsv_value_A1 hsv</t>
+  </si>
+  <si>
+    <t>hsv_value_A2 hsv</t>
+  </si>
+  <si>
+    <t>hsv_value_A3 hsv</t>
+  </si>
+  <si>
+    <t>hsv_value_A6 hsv</t>
+  </si>
+  <si>
+    <t>hsv_value_A7 hsv</t>
+  </si>
+  <si>
+    <t>hsv_value_A8 hsv</t>
+  </si>
+  <si>
+    <t>hsv_value_A9 hsv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metric_A4 </t>
+  </si>
+  <si>
+    <t>metric_A1</t>
+  </si>
+  <si>
+    <t>metric_A2</t>
+  </si>
+  <si>
+    <t>metric_A3</t>
+  </si>
+  <si>
+    <t>metric_A6</t>
+  </si>
+  <si>
+    <t>metric_A7</t>
+  </si>
+  <si>
+    <t>metric_A8</t>
+  </si>
+  <si>
+    <t>metric_A9</t>
+  </si>
+  <si>
+    <t>metric_P1</t>
+  </si>
+  <si>
+    <t>metric_P2</t>
+  </si>
+  <si>
+    <t>metric_P3</t>
+  </si>
+  <si>
+    <t>metric_P4</t>
+  </si>
+  <si>
+    <t>hsv_value_P1 hsv</t>
+  </si>
+  <si>
+    <t>hsv_value_P2 hsv</t>
+  </si>
+  <si>
+    <t>hsv_value_P3 hsv</t>
+  </si>
+  <si>
+    <t>hsv_value_P4 hsv</t>
+  </si>
+  <si>
+    <t>hsv_value_A5 hsv</t>
+  </si>
+  <si>
+    <t>metric_A5</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>DarkRed</t>
+  </si>
+  <si>
+    <t>YellowRed</t>
+  </si>
+  <si>
+    <t>LightGreen</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>LightBrown</t>
+  </si>
+  <si>
+    <t>Oval</t>
+  </si>
+  <si>
+    <t>SmallPearShape</t>
   </si>
 </sst>
 </file>
@@ -124,18 +232,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,10 +252,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,164 +535,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="2" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.21834718250327201</v>
       </c>
       <c r="B2">
         <v>0.81883722366689804</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.14114915652447901</v>
       </c>
       <c r="B3">
         <v>0.83535287874573905</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.37021584902077798</v>
       </c>
       <c r="B4">
         <v>0.81110058002763896</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.14912715617648301</v>
       </c>
       <c r="B5">
         <v>0.771042136373982</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.184738799287993</v>
       </c>
       <c r="B6">
         <v>0.62789682435281402</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.21834718250327201</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.81883722366689804</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.14114915652447901</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.83535287874573905</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.37021584902077798</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.81110058002763896</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.14912715617648301</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.771042136373982</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.184738799287993</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.62789682435281402</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -650,70 +752,262 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>26</v>
       </c>
       <c r="B49" t="s">
         <v>27</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" t="s">
+        <v>59</v>
+      </c>
+      <c r="D76" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/DataClassification.xlsx
+++ b/DataClassification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Github\IS-Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62B871A-BCC4-4F6B-A83A-9DD24A06049C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85185F7-F6A2-4C1C-8648-F407A6B7A096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15405" yWindow="6150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="65">
   <si>
     <t>T</t>
   </si>
@@ -217,12 +217,18 @@
   </si>
   <si>
     <t>SmallPearShape</t>
+  </si>
+  <si>
+    <t>Target</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -252,9 +258,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,186 +838,1062 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>31</v>
       </c>
       <c r="B67" t="s">
         <v>58</v>
       </c>
-      <c r="D67" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>0.21834718250327201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>32</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
-      <c r="D68" t="s">
-        <v>40</v>
-      </c>
-      <c r="E68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>0.14114915652447901</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>33</v>
       </c>
       <c r="B69" t="s">
         <v>58</v>
       </c>
-      <c r="D69" t="s">
-        <v>41</v>
-      </c>
-      <c r="E69" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>0.37021584902077798</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>30</v>
       </c>
       <c r="B70" t="s">
         <v>58</v>
       </c>
-      <c r="D70" t="s">
-        <v>38</v>
-      </c>
-      <c r="E70" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="2">
+        <v>0.31565110950657599</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>54</v>
       </c>
       <c r="B71" t="s">
         <v>56</v>
       </c>
-      <c r="D71" t="s">
-        <v>55</v>
-      </c>
-      <c r="E71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>0.36484206646577899</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>34</v>
       </c>
       <c r="B72" t="s">
         <v>56</v>
       </c>
-      <c r="D72" t="s">
-        <v>42</v>
-      </c>
-      <c r="E72" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>0.46111430823046201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>35</v>
       </c>
       <c r="B73" t="s">
         <v>57</v>
       </c>
-      <c r="D73" t="s">
-        <v>43</v>
-      </c>
-      <c r="E73" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>0.55223401159524799</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>36</v>
       </c>
       <c r="B74" t="s">
         <v>58</v>
       </c>
-      <c r="D74" t="s">
-        <v>44</v>
-      </c>
-      <c r="E74" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>0.16974699191123699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>37</v>
       </c>
       <c r="B75" t="s">
         <v>56</v>
       </c>
-      <c r="D75" t="s">
-        <v>45</v>
-      </c>
-      <c r="E75" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>0.49186650336971999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>50</v>
       </c>
       <c r="B76" t="s">
         <v>59</v>
       </c>
-      <c r="D76" t="s">
-        <v>46</v>
-      </c>
-      <c r="E76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>0.14912715617648301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>51</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
-      <c r="D77" t="s">
-        <v>47</v>
-      </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>0.184738799287993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>52</v>
       </c>
       <c r="B78" t="s">
         <v>60</v>
       </c>
-      <c r="D78" t="s">
-        <v>48</v>
-      </c>
-      <c r="E78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>8.8379941463489001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>53</v>
       </c>
       <c r="B79" t="s">
         <v>61</v>
       </c>
-      <c r="D79" t="s">
+      <c r="C79">
+        <v>9.816644694585E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.21834718250327201</v>
+      </c>
+      <c r="B85">
+        <v>0.81883722366689804</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.14114915652447901</v>
+      </c>
+      <c r="B86">
+        <v>0.83535287874573905</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.37021584902077798</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.81110058002763896</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>0.31565110950657599</v>
+      </c>
+      <c r="B88">
+        <v>0.83101159370695299</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.36484206646577899</v>
+      </c>
+      <c r="B89">
+        <v>0.85179735743181095</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.46111430823046201</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.82518436951971097</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.55223401159524799</v>
+      </c>
+      <c r="B91">
+        <v>0.83449173587895298</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.16974699191123699</v>
+      </c>
+      <c r="B92">
+        <v>0.84048839626677796</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.49186650336971999</v>
+      </c>
+      <c r="B93">
+        <v>0.80888748885905304</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.14912715617648301</v>
+      </c>
+      <c r="B94">
+        <v>0.771042136373982</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.184738799287993</v>
+      </c>
+      <c r="B95">
+        <v>0.62789682435281402</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>8.8379941463489001E-2</v>
+      </c>
+      <c r="B96">
+        <v>0.620677225721047</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>9.816644694585E-2</v>
+      </c>
+      <c r="B97">
+        <v>0.79091518217703105</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101">
+        <v>0.36484206646577899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102">
+        <v>0.46111430823046201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103">
+        <v>0.49186650336971999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104">
+        <v>0.55223401159524799</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" t="s">
+        <v>58</v>
+      </c>
+      <c r="C109">
+        <v>0.21834718250327201</v>
+      </c>
+      <c r="D109" s="3">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" t="s">
+        <v>62</v>
+      </c>
+      <c r="G109">
+        <v>0.81883722366689804</v>
+      </c>
+      <c r="H109" s="3">
+        <v>3</v>
+      </c>
+      <c r="I109" t="s">
+        <v>3</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>0.14114915652447901</v>
+      </c>
+      <c r="D110" s="3">
+        <v>4</v>
+      </c>
+      <c r="E110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F110" t="s">
+        <v>62</v>
+      </c>
+      <c r="G110">
+        <v>0.83535287874573905</v>
+      </c>
+      <c r="H110" s="3">
+        <v>3</v>
+      </c>
+      <c r="I110" t="s">
+        <v>3</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111">
+        <v>0.37021584902077798</v>
+      </c>
+      <c r="D111" s="3">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>41</v>
+      </c>
+      <c r="F111" t="s">
+        <v>62</v>
+      </c>
+      <c r="G111">
+        <v>0.81110058002763896</v>
+      </c>
+      <c r="H111" s="3">
+        <v>3</v>
+      </c>
+      <c r="I111" t="s">
+        <v>3</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0.31565110950657599</v>
+      </c>
+      <c r="D112" s="3">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>38</v>
+      </c>
+      <c r="F112" t="s">
+        <v>62</v>
+      </c>
+      <c r="G112">
+        <v>0.83101159370695299</v>
+      </c>
+      <c r="H112" s="3">
+        <v>3</v>
+      </c>
+      <c r="I112" t="s">
+        <v>3</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113">
+        <v>0.36484206646577899</v>
+      </c>
+      <c r="D113" s="3">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>55</v>
+      </c>
+      <c r="F113" t="s">
+        <v>62</v>
+      </c>
+      <c r="G113">
+        <v>0.85179735743181095</v>
+      </c>
+      <c r="H113" s="3">
+        <v>3</v>
+      </c>
+      <c r="I113" t="s">
+        <v>3</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" t="s">
+        <v>56</v>
+      </c>
+      <c r="C114">
+        <v>0.46111430823046201</v>
+      </c>
+      <c r="D114" s="3">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>42</v>
+      </c>
+      <c r="F114" t="s">
+        <v>62</v>
+      </c>
+      <c r="G114">
+        <v>0.82518436951971097</v>
+      </c>
+      <c r="H114" s="3">
+        <v>3</v>
+      </c>
+      <c r="I114" t="s">
+        <v>3</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115">
+        <v>0.55223401159524799</v>
+      </c>
+      <c r="D115" s="3">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>43</v>
+      </c>
+      <c r="F115" t="s">
+        <v>62</v>
+      </c>
+      <c r="G115">
+        <v>0.83449173587895298</v>
+      </c>
+      <c r="H115" s="3">
+        <v>3</v>
+      </c>
+      <c r="I115" t="s">
+        <v>3</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>37</v>
+      </c>
+      <c r="B116" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116">
+        <v>0.49186650336971999</v>
+      </c>
+      <c r="D116" s="3">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>45</v>
+      </c>
+      <c r="F116" t="s">
+        <v>62</v>
+      </c>
+      <c r="G116">
+        <v>0.80888748885905304</v>
+      </c>
+      <c r="H116" s="3">
+        <v>3</v>
+      </c>
+      <c r="I116" t="s">
+        <v>3</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>36</v>
+      </c>
+      <c r="B117" t="s">
+        <v>56</v>
+      </c>
+      <c r="C117">
+        <v>0.16974699191123699</v>
+      </c>
+      <c r="D117" s="3">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>62</v>
+      </c>
+      <c r="G117">
+        <v>0.84048839626677796</v>
+      </c>
+      <c r="H117" s="3">
+        <v>3</v>
+      </c>
+      <c r="I117" t="s">
+        <v>3</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118" t="s">
+        <v>59</v>
+      </c>
+      <c r="C118">
+        <v>0.14912715617648301</v>
+      </c>
+      <c r="D118" s="3">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>46</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118">
+        <v>0.771042136373982</v>
+      </c>
+      <c r="H118" s="3">
+        <v>2</v>
+      </c>
+      <c r="I118" t="s">
+        <v>10</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>0.184738799287993</v>
+      </c>
+      <c r="D119" s="3">
+        <v>2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>47</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119">
+        <v>0.62789682435281402</v>
+      </c>
+      <c r="H119" s="3">
+        <v>2</v>
+      </c>
+      <c r="I119" t="s">
+        <v>10</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" t="s">
+        <v>60</v>
+      </c>
+      <c r="C120">
+        <v>8.8379941463489001E-2</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>48</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120">
+        <v>0.620677225721047</v>
+      </c>
+      <c r="H120" s="3">
+        <v>2</v>
+      </c>
+      <c r="I120" t="s">
+        <v>10</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>53</v>
+      </c>
+      <c r="B121" t="s">
+        <v>61</v>
+      </c>
+      <c r="C121">
+        <v>9.816644694585E-2</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
         <v>49</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F121" t="s">
         <v>63</v>
+      </c>
+      <c r="G121">
+        <v>0.79091518217703105</v>
+      </c>
+      <c r="H121" s="3">
+        <v>1</v>
+      </c>
+      <c r="I121" t="s">
+        <v>10</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>31</v>
+      </c>
+      <c r="B126" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126">
+        <v>0.21834718250327201</v>
+      </c>
+      <c r="D126" s="3">
+        <v>5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>39</v>
+      </c>
+      <c r="F126" t="s">
+        <v>62</v>
+      </c>
+      <c r="G126">
+        <v>0.81883722366689804</v>
+      </c>
+      <c r="H126" s="3">
+        <v>3</v>
+      </c>
+      <c r="I126" t="s">
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>32</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>0.14114915652447901</v>
+      </c>
+      <c r="D127" s="3">
+        <v>4</v>
+      </c>
+      <c r="E127" t="s">
+        <v>40</v>
+      </c>
+      <c r="F127" t="s">
+        <v>62</v>
+      </c>
+      <c r="G127">
+        <v>0.83535287874573905</v>
+      </c>
+      <c r="H127" s="3">
+        <v>3</v>
+      </c>
+      <c r="I127" t="s">
+        <v>3</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>33</v>
+      </c>
+      <c r="B128" t="s">
+        <v>56</v>
+      </c>
+      <c r="C128">
+        <v>0.37021584902077798</v>
+      </c>
+      <c r="D128" s="3">
+        <v>3</v>
+      </c>
+      <c r="E128" t="s">
+        <v>41</v>
+      </c>
+      <c r="F128" t="s">
+        <v>62</v>
+      </c>
+      <c r="G128">
+        <v>0.81110058002763896</v>
+      </c>
+      <c r="H128" s="3">
+        <v>3</v>
+      </c>
+      <c r="I128" t="s">
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>35</v>
+      </c>
+      <c r="B129" t="s">
+        <v>57</v>
+      </c>
+      <c r="C129">
+        <v>0.55223401159524799</v>
+      </c>
+      <c r="D129" s="3">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" t="s">
+        <v>62</v>
+      </c>
+      <c r="G129">
+        <v>0.83449173587895298</v>
+      </c>
+      <c r="H129" s="3">
+        <v>3</v>
+      </c>
+      <c r="I129" t="s">
+        <v>3</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>37</v>
+      </c>
+      <c r="B130" t="s">
+        <v>57</v>
+      </c>
+      <c r="C130">
+        <v>0.49186650336971999</v>
+      </c>
+      <c r="D130" s="3">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>45</v>
+      </c>
+      <c r="F130" t="s">
+        <v>62</v>
+      </c>
+      <c r="G130">
+        <v>0.80888748885905304</v>
+      </c>
+      <c r="H130" s="3">
+        <v>3</v>
+      </c>
+      <c r="I130" t="s">
+        <v>3</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>51</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <v>0.184738799287993</v>
+      </c>
+      <c r="D131" s="3">
+        <v>2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>47</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131">
+        <v>0.62789682435281402</v>
+      </c>
+      <c r="H131" s="3">
+        <v>2</v>
+      </c>
+      <c r="I131" t="s">
+        <v>10</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>53</v>
+      </c>
+      <c r="B132" t="s">
+        <v>61</v>
+      </c>
+      <c r="C132">
+        <v>9.816644694585E-2</v>
+      </c>
+      <c r="D132" s="3">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>49</v>
+      </c>
+      <c r="F132" t="s">
+        <v>63</v>
+      </c>
+      <c r="G132">
+        <v>0.79091518217703105</v>
+      </c>
+      <c r="H132" s="3">
+        <v>1</v>
+      </c>
+      <c r="I132" t="s">
+        <v>10</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="3">
+        <v>5</v>
+      </c>
+      <c r="C134" s="3">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="3">
+        <v>4</v>
+      </c>
+      <c r="C135" s="3">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="3">
+        <v>3</v>
+      </c>
+      <c r="C136" s="3">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="3">
+        <v>3</v>
+      </c>
+      <c r="C137" s="3">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="3">
+        <v>3</v>
+      </c>
+      <c r="C138" s="3">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="3">
+        <v>2</v>
+      </c>
+      <c r="C139" s="3">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="3">
+        <v>1</v>
+      </c>
+      <c r="C140" s="3">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DataClassification.xlsx
+++ b/DataClassification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Github\IS-Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85185F7-F6A2-4C1C-8648-F407A6B7A096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99032ADF-6047-4132-91B0-C57E6C73F551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15405" yWindow="6150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="3570" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="66">
   <si>
     <t>T</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Target</t>
+  </si>
+  <si>
+    <t>nr.</t>
   </si>
 </sst>
 </file>
@@ -545,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142:E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,7 +1368,7 @@
         <v>35</v>
       </c>
       <c r="B115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C115">
         <v>0.55223401159524799</v>
@@ -1394,25 +1397,25 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C116">
-        <v>0.49186650336971999</v>
+        <v>0.16974699191123699</v>
       </c>
       <c r="D116" s="3">
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
         <v>62</v>
       </c>
       <c r="G116">
-        <v>0.80888748885905304</v>
+        <v>0.84048839626677796</v>
       </c>
       <c r="H116" s="3">
         <v>3</v>
@@ -1426,25 +1429,25 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B117" t="s">
         <v>56</v>
       </c>
       <c r="C117">
-        <v>0.16974699191123699</v>
+        <v>0.49186650336971999</v>
       </c>
       <c r="D117" s="3">
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
         <v>62</v>
       </c>
       <c r="G117">
-        <v>0.84048839626677796</v>
+        <v>0.80888748885905304</v>
       </c>
       <c r="H117" s="3">
         <v>3</v>
@@ -1809,6 +1812,9 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>65</v>
+      </c>
       <c r="B133" s="3" t="s">
         <v>26</v>
       </c>
@@ -1820,79 +1826,225 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B134" s="3">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>31</v>
+      </c>
+      <c r="B135" t="s">
+        <v>58</v>
+      </c>
+      <c r="C135">
+        <v>0.21834718250327201</v>
+      </c>
+      <c r="D135" s="3">
         <v>5</v>
       </c>
-      <c r="C134" s="3">
-        <v>3</v>
-      </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B135" s="3">
+      <c r="E135" t="s">
+        <v>39</v>
+      </c>
+      <c r="F135" t="s">
+        <v>62</v>
+      </c>
+      <c r="G135">
+        <v>0.81883722366689804</v>
+      </c>
+      <c r="H135" s="3">
+        <v>3</v>
+      </c>
+      <c r="I135" t="s">
+        <v>3</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>32</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>0.14114915652447901</v>
+      </c>
+      <c r="D136" s="3">
         <v>4</v>
       </c>
-      <c r="C135" s="3">
-        <v>3</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B136" s="3">
-        <v>3</v>
-      </c>
-      <c r="C136" s="3">
-        <v>3</v>
-      </c>
-      <c r="D136">
+      <c r="E136" t="s">
+        <v>40</v>
+      </c>
+      <c r="F136" t="s">
+        <v>62</v>
+      </c>
+      <c r="G136">
+        <v>0.83535287874573905</v>
+      </c>
+      <c r="H136" s="3">
+        <v>3</v>
+      </c>
+      <c r="I136" t="s">
+        <v>3</v>
+      </c>
+      <c r="J136">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B137" s="3">
-        <v>3</v>
-      </c>
-      <c r="C137" s="3">
-        <v>3</v>
-      </c>
-      <c r="D137">
+      <c r="A137" t="s">
+        <v>33</v>
+      </c>
+      <c r="B137" t="s">
+        <v>56</v>
+      </c>
+      <c r="C137">
+        <v>0.37021584902077798</v>
+      </c>
+      <c r="D137" s="3">
+        <v>3</v>
+      </c>
+      <c r="E137" t="s">
+        <v>41</v>
+      </c>
+      <c r="F137" t="s">
+        <v>62</v>
+      </c>
+      <c r="G137">
+        <v>0.81110058002763896</v>
+      </c>
+      <c r="H137" s="3">
+        <v>3</v>
+      </c>
+      <c r="I137" t="s">
+        <v>3</v>
+      </c>
+      <c r="J137">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B138" s="3">
-        <v>3</v>
-      </c>
-      <c r="C138" s="3">
-        <v>3</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
+      <c r="A138" t="s">
+        <v>50</v>
+      </c>
+      <c r="B138" t="s">
+        <v>59</v>
+      </c>
+      <c r="C138">
+        <v>0.14912715617648301</v>
+      </c>
+      <c r="D138" s="3">
+        <v>2</v>
+      </c>
+      <c r="E138" t="s">
+        <v>46</v>
+      </c>
+      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138">
+        <v>0.771042136373982</v>
+      </c>
+      <c r="H138" s="3">
+        <v>2</v>
+      </c>
+      <c r="I138" t="s">
+        <v>10</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B139" s="3">
+      <c r="A139" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139">
+        <v>9.816644694585E-2</v>
+      </c>
+      <c r="D139" s="3">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>49</v>
+      </c>
+      <c r="F139" t="s">
+        <v>63</v>
+      </c>
+      <c r="G139">
+        <v>0.79091518217703105</v>
+      </c>
+      <c r="H139" s="3">
+        <v>1</v>
+      </c>
+      <c r="I139" t="s">
+        <v>10</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C142" s="3">
+        <v>5</v>
+      </c>
+      <c r="D142" s="3">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C143" s="3">
+        <v>4</v>
+      </c>
+      <c r="D143" s="3">
+        <v>3</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C144" s="3">
+        <v>3</v>
+      </c>
+      <c r="D144" s="3">
+        <v>3</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C145" s="3">
         <v>2</v>
       </c>
-      <c r="C139" s="3">
+      <c r="D145" s="3">
         <v>2</v>
       </c>
-      <c r="D139">
+      <c r="E145">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B140" s="3">
-        <v>1</v>
-      </c>
-      <c r="C140" s="3">
-        <v>1</v>
-      </c>
-      <c r="D140">
+    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C146" s="3">
+        <v>1</v>
+      </c>
+      <c r="D146" s="3">
+        <v>1</v>
+      </c>
+      <c r="E146">
         <v>0</v>
       </c>
     </row>

--- a/DataClassification.xlsx
+++ b/DataClassification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Github\IS-Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99032ADF-6047-4132-91B0-C57E6C73F551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED1C345-F3F0-4CA1-8594-4BE4B122F083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3570" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142:E146"/>
+      <selection activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,6 +1994,12 @@
       <c r="C140" s="3"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
       <c r="C142" s="3">
         <v>5</v>
       </c>

--- a/DataClassification.xlsx
+++ b/DataClassification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Github\IS-Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED1C345-F3F0-4CA1-8594-4BE4B122F083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B721E3C-A1D1-4AB6-BA8A-C2163E4871D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3570" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="66">
   <si>
     <t>T</t>
   </si>
@@ -548,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J132" sqref="J132"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M136" sqref="M136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C145" s="3">
         <v>2</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C146" s="3">
         <v>1</v>
       </c>
@@ -2052,6 +2052,126 @@
       </c>
       <c r="E146">
         <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>30</v>
+      </c>
+      <c r="B151" s="3">
+        <v>3</v>
+      </c>
+      <c r="C151" s="3">
+        <v>3</v>
+      </c>
+      <c r="E151" t="s">
+        <v>38</v>
+      </c>
+      <c r="I151" t="s">
+        <v>3</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>54</v>
+      </c>
+      <c r="B152" s="3">
+        <v>3</v>
+      </c>
+      <c r="C152" s="3">
+        <v>3</v>
+      </c>
+      <c r="E152" t="s">
+        <v>55</v>
+      </c>
+      <c r="I152" t="s">
+        <v>3</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>34</v>
+      </c>
+      <c r="B153" s="3">
+        <v>3</v>
+      </c>
+      <c r="C153" s="3">
+        <v>3</v>
+      </c>
+      <c r="E153" t="s">
+        <v>42</v>
+      </c>
+      <c r="I153" t="s">
+        <v>3</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>35</v>
+      </c>
+      <c r="B154" s="3">
+        <v>3</v>
+      </c>
+      <c r="C154" s="3">
+        <v>3</v>
+      </c>
+      <c r="E154" t="s">
+        <v>43</v>
+      </c>
+      <c r="I154" t="s">
+        <v>3</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>36</v>
+      </c>
+      <c r="B155" s="3">
+        <v>3</v>
+      </c>
+      <c r="C155" s="3">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>44</v>
+      </c>
+      <c r="I155" t="s">
+        <v>3</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>37</v>
+      </c>
+      <c r="B156" s="3">
+        <v>3</v>
+      </c>
+      <c r="C156" s="3">
+        <v>3</v>
+      </c>
+      <c r="E156" t="s">
+        <v>45</v>
+      </c>
+      <c r="I156" t="s">
+        <v>3</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DataClassification.xlsx
+++ b/DataClassification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Github\IS-Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B721E3C-A1D1-4AB6-BA8A-C2163E4871D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C7369D-30A0-401E-A014-D94786B15018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3570" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M136" sqref="M136"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M115" sqref="M115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
